--- a/scraping/allo/all.xlsx
+++ b/scraping/allo/all.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ноутбуки" sheetId="1" r:id="rId1"/>
+    <sheet name="ноуты" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="259">
   <si>
     <t>Ноутбук ASUS Vivobook 15 X1504ZA-BQ379W (90NB1021-M01DN0)</t>
   </si>
@@ -313,6 +313,18 @@
     <t>https://allo.ua/ua/products/notebooks/noutbuk-asus-vivobook-15x-k3504va-l1308-90nb10a2-m00bu0.html</t>
   </si>
   <si>
+    <t>Ноутбук Acer Aspire 5 A515-57 (NX.KN4EU.003)</t>
+  </si>
+  <si>
+    <t>1002286</t>
+  </si>
+  <si>
+    <t>https://i.allo.ua/media/catalog/product/cache/3/image/710x600/602f0fa2c1f0d1ba5e241f914e856ff9/_/_/__result_4_15.jpg</t>
+  </si>
+  <si>
+    <t>https://allo.ua/ua/products/notebooks/noutbuk-acer-aspire-5-a515-57-nx-kn4eu-003.html</t>
+  </si>
+  <si>
     <t>Ноутбук Acer Aspire 5 A515-57G (NX.KMHEU.00A)</t>
   </si>
   <si>
@@ -424,21 +436,6 @@
     <t>https://allo.ua/ua/products/notebooks/noutbuk-hp-255-g10-8x917es.html</t>
   </si>
   <si>
-    <t>Ноутбук ігровий HP Victus 15-fa1013ua (9E5C0EA)</t>
-  </si>
-  <si>
-    <t>1048792</t>
-  </si>
-  <si>
-    <t>36 799 ₴</t>
-  </si>
-  <si>
-    <t>https://i.allo.ua/media/catalog/product/cache/3/image/710x600/602f0fa2c1f0d1ba5e241f914e856ff9/import/5128550517480751.webp</t>
-  </si>
-  <si>
-    <t>https://allo.ua/ua/products/notebooks/noutbuk-igrovoj-hp-victus-15-fa1013ua-9e5c0ea.html</t>
-  </si>
-  <si>
     <t>Ігровий ноутбук MSI GF76 Katana "Open Box"</t>
   </si>
   <si>
@@ -580,7 +577,7 @@
     <t>721692</t>
   </si>
   <si>
-    <t>39 499 ₴</t>
+    <t>43 499 ₴</t>
   </si>
   <si>
     <t>https://i.allo.ua/media/catalog/product/cache/3/image/710x600/602f0fa2c1f0d1ba5e241f914e856ff9/w/w/wwru_macbook-air_q121_silver_pdp-image-1_1.jpg</t>
@@ -1529,7 +1526,7 @@
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>105</v>
@@ -1546,24 +1543,24 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>114</v>
@@ -1580,523 +1577,523 @@
         <v>117</v>
       </c>
       <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
         <v>126</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>137</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
         <v>146</v>
-      </c>
-      <c r="B32" t="s">
-        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
         <v>150</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>151</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
         <v>155</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
         <v>159</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
         <v>163</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>164</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
         <v>168</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
         <v>173</v>
-      </c>
-      <c r="B38" t="s">
-        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
         <v>177</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>178</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" t="s">
         <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>183</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" t="s">
         <v>186</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>187</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
         <v>191</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>192</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>197</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
         <v>201</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>202</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
         <v>206</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>207</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
         <v>211</v>
-      </c>
-      <c r="B46" t="s">
-        <v>212</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
         <v>215</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>216</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
         <v>220</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>221</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
         <v>225</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>226</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
         <v>230</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
         <v>234</v>
-      </c>
-      <c r="B51" t="s">
-        <v>235</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" t="s">
         <v>238</v>
-      </c>
-      <c r="B52" t="s">
-        <v>239</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" t="s">
         <v>242</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>243</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" t="s">
         <v>247</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s">
         <v>251</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
         <v>255</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>256</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
